--- a/xlsx/nor_oda_management_tenyear.xlsx
+++ b/xlsx/nor_oda_management_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Forvaltning av bistanden, 2014-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata viser data for Forvaltning av bistanden, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -404,7 +404,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -412,12 +412,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.24397093</v>
+        <v>0.276517142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -425,12 +425,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.7332360099999999</v>
+        <v>0.69287755</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -438,12 +438,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>5.50295433079</v>
+        <v>4.72460742875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -451,12 +451,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>5.42832598457</v>
+        <v>5.54364387462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -464,12 +464,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>20.13722332518</v>
+        <v>23.24474059026</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -477,12 +477,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.276517142</v>
+        <v>0.262287332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.69287755</v>
+        <v>0.352843958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -503,12 +503,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>4.72460742875</v>
+        <v>4.52849356078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -516,12 +516,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>5.54364387462</v>
+        <v>5.02653460995</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -529,12 +529,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>23.24474059026</v>
+        <v>26.61579459789</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -542,12 +542,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.262287332</v>
+        <v>0.251523485</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -555,12 +555,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.352843958</v>
+        <v>0.793430664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -568,12 +568,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>4.52849356078</v>
+        <v>9.509554110930001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -581,12 +581,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>5.02653460995</v>
+        <v>4.95672690994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -594,12 +594,12 @@
         </is>
       </c>
       <c r="C16">
-        <v>26.61579459789</v>
+        <v>18.60169851781</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,12 +607,12 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.251523485</v>
+        <v>0.249774247</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -620,12 +620,12 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.793430664</v>
+        <v>0.950652874</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -633,12 +633,12 @@
         </is>
       </c>
       <c r="C19">
-        <v>9.509554110930001</v>
+        <v>10.33954930905</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -646,12 +646,12 @@
         </is>
       </c>
       <c r="C20">
-        <v>4.95672690994</v>
+        <v>5.03988476818</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -659,12 +659,12 @@
         </is>
       </c>
       <c r="C21">
-        <v>18.60169851781</v>
+        <v>18.05202014502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -672,12 +672,12 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.249774247</v>
+        <v>0.856876728</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -685,12 +685,12 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.950652874</v>
+        <v>0.924622191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -698,12 +698,12 @@
         </is>
       </c>
       <c r="C24">
-        <v>10.33954930905</v>
+        <v>11.83006755895</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -711,12 +711,12 @@
         </is>
       </c>
       <c r="C25">
-        <v>5.03988476818</v>
+        <v>5.51461343942</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -724,12 +724,12 @@
         </is>
       </c>
       <c r="C26">
-        <v>18.05202014502</v>
+        <v>18.68445364392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -737,12 +737,12 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.856876728</v>
+        <v>0.6989282139999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -750,12 +750,12 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.924622191</v>
+        <v>0.808699547</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="C29">
-        <v>11.83006755895</v>
+        <v>18.8029590877</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -776,12 +776,12 @@
         </is>
       </c>
       <c r="C30">
-        <v>5.51461343942</v>
+        <v>5.77780684918</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -789,12 +789,12 @@
         </is>
       </c>
       <c r="C31">
-        <v>18.68445364392</v>
+        <v>13.40643479682</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -802,12 +802,12 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.6989282139999999</v>
+        <v>1.104634041</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -815,12 +815,12 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.808699547</v>
+        <v>0.865081031</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -828,12 +828,12 @@
         </is>
       </c>
       <c r="C34">
-        <v>18.8029590877</v>
+        <v>20.22676259435</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -841,12 +841,12 @@
         </is>
       </c>
       <c r="C35">
-        <v>5.77780684918</v>
+        <v>5.0147882059</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -854,12 +854,12 @@
         </is>
       </c>
       <c r="C36">
-        <v>13.40643479682</v>
+        <v>12.9365695576</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -867,12 +867,12 @@
         </is>
       </c>
       <c r="C37">
-        <v>1.104634041</v>
+        <v>5.032956933</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -880,12 +880,12 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.865081031</v>
+        <v>0.8085475089999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -893,12 +893,12 @@
         </is>
       </c>
       <c r="C39">
-        <v>20.22676259435</v>
+        <v>18.02338549329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -906,12 +906,12 @@
         </is>
       </c>
       <c r="C40">
-        <v>5.0147882059</v>
+        <v>5.97526767062</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -919,12 +919,12 @@
         </is>
       </c>
       <c r="C41">
-        <v>12.9365695576</v>
+        <v>19.77184026993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
         </is>
       </c>
       <c r="C42">
-        <v>5.032956933</v>
+        <v>4.874754145</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -945,12 +945,12 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.8085475089999999</v>
+        <v>0.605071092</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -958,12 +958,12 @@
         </is>
       </c>
       <c r="C44">
-        <v>18.02338549329</v>
+        <v>26.08006914043</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -971,12 +971,12 @@
         </is>
       </c>
       <c r="C45">
-        <v>5.97526767062</v>
+        <v>6.44138349585</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -984,12 +984,12 @@
         </is>
       </c>
       <c r="C46">
-        <v>19.77184026993</v>
+        <v>20.5825469574</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -997,12 +997,12 @@
         </is>
       </c>
       <c r="C47">
-        <v>4.874754145</v>
+        <v>4.392805071</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1010,12 +1010,12 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.605071092</v>
+        <v>0.827881065</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="C49">
-        <v>26.08006914043</v>
+        <v>29.1024960601</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1036,12 +1036,12 @@
         </is>
       </c>
       <c r="C50">
-        <v>6.44138349585</v>
+        <v>6.58510306954</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>20.5825469574</v>
+        <v>14.77755674202</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_management_tenyear.xlsx
+++ b/xlsx/nor_oda_management_tenyear.xlsx
@@ -368,7 +368,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata viser data for Forvaltning av bistanden, 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata inneholder data om forvaltning av norsk bistand. 2015-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
